--- a/NatmiData/natmiOut_TPM/OldD4/LR-pairs_lrc2p/Ccl11-Ackr4.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD4/LR-pairs_lrc2p/Ccl11-Ackr4.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="27">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -452,7 +452,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T16"/>
+  <dimension ref="A1:T21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -534,22 +534,22 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F2">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G2">
-        <v>1.086278666666667</v>
+        <v>0.8168139999999999</v>
       </c>
       <c r="H2">
-        <v>3.258836</v>
+        <v>2.450442</v>
       </c>
       <c r="I2">
-        <v>0.01142600940532366</v>
+        <v>0.009738363985633989</v>
       </c>
       <c r="J2">
-        <v>0.01200515265421091</v>
+        <v>0.00977835907772915</v>
       </c>
       <c r="K2">
         <v>1</v>
@@ -558,28 +558,28 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="M2">
-        <v>0.07058066666666667</v>
+        <v>0.011782</v>
       </c>
       <c r="N2">
-        <v>0.211742</v>
+        <v>0.035346</v>
       </c>
       <c r="O2">
-        <v>0.09603293044844197</v>
+        <v>0.0185453160301082</v>
       </c>
       <c r="P2">
-        <v>0.1063685922746608</v>
+        <v>0.0190618769471875</v>
       </c>
       <c r="Q2">
-        <v>0.07667027247911111</v>
+        <v>0.009623702547999999</v>
       </c>
       <c r="R2">
-        <v>0.6900324523120001</v>
+        <v>0.086613322932</v>
       </c>
       <c r="S2">
-        <v>0.001097273166524691</v>
+        <v>0.0001806010377298064</v>
       </c>
       <c r="T2">
-        <v>0.001276971187870822</v>
+        <v>0.000186393877485087</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -596,22 +596,22 @@
         <v>21</v>
       </c>
       <c r="E3">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F3">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G3">
-        <v>1.086278666666667</v>
+        <v>0.8168139999999999</v>
       </c>
       <c r="H3">
-        <v>3.258836</v>
+        <v>2.450442</v>
       </c>
       <c r="I3">
-        <v>0.01142600940532366</v>
+        <v>0.009738363985633989</v>
       </c>
       <c r="J3">
-        <v>0.01200515265421091</v>
+        <v>0.00977835907772915</v>
       </c>
       <c r="K3">
         <v>2</v>
@@ -620,28 +620,28 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="M3">
-        <v>0.4501370000000001</v>
+        <v>0.450137</v>
       </c>
       <c r="N3">
         <v>1.350411</v>
       </c>
       <c r="O3">
-        <v>0.612461985056394</v>
+        <v>0.7085327552066554</v>
       </c>
       <c r="P3">
-        <v>0.678378956759722</v>
+        <v>0.7282682145116399</v>
       </c>
       <c r="Q3">
-        <v>0.4889742201773334</v>
+        <v>0.367678203518</v>
       </c>
       <c r="R3">
-        <v>4.400767981596001</v>
+        <v>3.309103831662</v>
       </c>
       <c r="S3">
-        <v>0.006997996401657559</v>
+        <v>0.006899949865946516</v>
       </c>
       <c r="T3">
-        <v>0.008144042933304802</v>
+        <v>0.007121268106391494</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -658,22 +658,22 @@
         <v>23</v>
       </c>
       <c r="E4">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F4">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G4">
-        <v>1.086278666666667</v>
+        <v>0.8168139999999999</v>
       </c>
       <c r="H4">
-        <v>3.258836</v>
+        <v>2.450442</v>
       </c>
       <c r="I4">
-        <v>0.01142600940532366</v>
+        <v>0.009738363985633989</v>
       </c>
       <c r="J4">
-        <v>0.01200515265421091</v>
+        <v>0.00977835907772915</v>
       </c>
       <c r="K4">
         <v>1</v>
@@ -682,33 +682,33 @@
         <v>0.5</v>
       </c>
       <c r="M4">
-        <v>0.2142455</v>
+        <v>0.051649</v>
       </c>
       <c r="N4">
-        <v>0.428491</v>
+        <v>0.103298</v>
       </c>
       <c r="O4">
-        <v>0.291505084495164</v>
+        <v>0.08129749003896268</v>
       </c>
       <c r="P4">
-        <v>0.2152524509656171</v>
+        <v>0.05570796596193557</v>
       </c>
       <c r="Q4">
-        <v>0.2327303160793333</v>
+        <v>0.04218762628599999</v>
       </c>
       <c r="R4">
-        <v>1.396381896476</v>
+        <v>0.253125757716</v>
       </c>
       <c r="S4">
-        <v>0.003330739837141414</v>
+        <v>0.0007917045491178721</v>
       </c>
       <c r="T4">
-        <v>0.002584138533035281</v>
+        <v>0.0005447324946657192</v>
       </c>
     </row>
     <row r="5" spans="1:20">
       <c r="A5" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B5" t="s">
         <v>25</v>
@@ -717,25 +717,25 @@
         <v>26</v>
       </c>
       <c r="D5" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="E5">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F5">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G5">
-        <v>78.34131766666667</v>
+        <v>0.8168139999999999</v>
       </c>
       <c r="H5">
-        <v>235.023953</v>
+        <v>2.450442</v>
       </c>
       <c r="I5">
-        <v>0.8240322303590443</v>
+        <v>0.009738363985633989</v>
       </c>
       <c r="J5">
-        <v>0.8657994551309391</v>
+        <v>0.00977835907772915</v>
       </c>
       <c r="K5">
         <v>1</v>
@@ -744,28 +744,28 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="M5">
-        <v>0.07058066666666667</v>
+        <v>0.1217406666666667</v>
       </c>
       <c r="N5">
-        <v>0.211742</v>
+        <v>0.365222</v>
       </c>
       <c r="O5">
-        <v>0.09603293044844197</v>
+        <v>0.1916244387242736</v>
       </c>
       <c r="P5">
-        <v>0.1063685922746608</v>
+        <v>0.1969619425792371</v>
       </c>
       <c r="Q5">
-        <v>5.529382428458445</v>
+        <v>0.09943948090266666</v>
       </c>
       <c r="R5">
-        <v>49.76444185612601</v>
+        <v>0.8949553281239999</v>
       </c>
       <c r="S5">
-        <v>0.0791342298653446</v>
+        <v>0.001866108532839793</v>
       </c>
       <c r="T5">
-        <v>0.09209386923444639</v>
+        <v>0.00192596459918685</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -779,7 +779,7 @@
         <v>26</v>
       </c>
       <c r="D6" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E6">
         <v>3</v>
@@ -794,40 +794,40 @@
         <v>235.023953</v>
       </c>
       <c r="I6">
-        <v>0.8240322303590443</v>
+        <v>0.9340146796604594</v>
       </c>
       <c r="J6">
-        <v>0.8657994551309391</v>
+        <v>0.9378506425784978</v>
       </c>
       <c r="K6">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L6">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M6">
-        <v>0.4501370000000001</v>
+        <v>0.011782</v>
       </c>
       <c r="N6">
-        <v>1.350411</v>
+        <v>0.035346</v>
       </c>
       <c r="O6">
-        <v>0.612461985056394</v>
+        <v>0.0185453160301082</v>
       </c>
       <c r="P6">
-        <v>0.678378956759722</v>
+        <v>0.0190618769471875</v>
       </c>
       <c r="Q6">
-        <v>35.26432571052034</v>
+        <v>0.9230174047486668</v>
       </c>
       <c r="R6">
-        <v>317.3789313946831</v>
+        <v>8.307156642738001</v>
       </c>
       <c r="S6">
-        <v>0.5046884155561481</v>
+        <v>0.01732159741106349</v>
       </c>
       <c r="T6">
-        <v>0.5873401311348623</v>
+        <v>0.01787719354367205</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -841,7 +841,7 @@
         <v>26</v>
       </c>
       <c r="D7" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="E7">
         <v>3</v>
@@ -856,45 +856,45 @@
         <v>235.023953</v>
       </c>
       <c r="I7">
-        <v>0.8240322303590443</v>
+        <v>0.9340146796604594</v>
       </c>
       <c r="J7">
-        <v>0.8657994551309391</v>
+        <v>0.9378506425784978</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L7">
-        <v>0.5</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M7">
-        <v>0.2142455</v>
+        <v>0.450137</v>
       </c>
       <c r="N7">
-        <v>0.428491</v>
+        <v>1.350411</v>
       </c>
       <c r="O7">
-        <v>0.291505084495164</v>
+        <v>0.7085327552066554</v>
       </c>
       <c r="P7">
-        <v>0.2152524509656171</v>
+        <v>0.7282682145116399</v>
       </c>
       <c r="Q7">
-        <v>16.78427477415383</v>
+        <v>35.26432571052033</v>
       </c>
       <c r="R7">
-        <v>100.705648644923</v>
+        <v>317.378931394683</v>
       </c>
       <c r="S7">
-        <v>0.2402095849375517</v>
+        <v>0.6617799943832869</v>
       </c>
       <c r="T7">
-        <v>0.1863654547616305</v>
+        <v>0.6830068129492368</v>
       </c>
     </row>
     <row r="8" spans="1:20">
       <c r="A8" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B8" t="s">
         <v>25</v>
@@ -903,7 +903,7 @@
         <v>26</v>
       </c>
       <c r="D8" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="E8">
         <v>3</v>
@@ -912,51 +912,51 @@
         <v>1</v>
       </c>
       <c r="G8">
-        <v>0.971679</v>
+        <v>78.34131766666667</v>
       </c>
       <c r="H8">
-        <v>2.915037</v>
+        <v>235.023953</v>
       </c>
       <c r="I8">
-        <v>0.01022059415658427</v>
+        <v>0.9340146796604594</v>
       </c>
       <c r="J8">
-        <v>0.01073863924961949</v>
+        <v>0.9378506425784978</v>
       </c>
       <c r="K8">
         <v>1</v>
       </c>
       <c r="L8">
-        <v>0.3333333333333333</v>
+        <v>0.5</v>
       </c>
       <c r="M8">
-        <v>0.07058066666666667</v>
+        <v>0.051649</v>
       </c>
       <c r="N8">
-        <v>0.211742</v>
+        <v>0.103298</v>
       </c>
       <c r="O8">
-        <v>0.09603293044844197</v>
+        <v>0.08129749003896268</v>
       </c>
       <c r="P8">
-        <v>0.1063685922746608</v>
+        <v>0.05570796596193557</v>
       </c>
       <c r="Q8">
-        <v>0.068581751606</v>
+        <v>4.046250716165667</v>
       </c>
       <c r="R8">
-        <v>0.617235764454</v>
+        <v>24.277504296994</v>
       </c>
       <c r="S8">
-        <v>0.00098151360778101</v>
+        <v>0.07593304911594112</v>
       </c>
       <c r="T8">
-        <v>0.001142253939927446</v>
+        <v>0.05224575167414236</v>
       </c>
     </row>
     <row r="9" spans="1:20">
       <c r="A9" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B9" t="s">
         <v>25</v>
@@ -965,7 +965,7 @@
         <v>26</v>
       </c>
       <c r="D9" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="E9">
         <v>3</v>
@@ -974,46 +974,46 @@
         <v>1</v>
       </c>
       <c r="G9">
-        <v>0.971679</v>
+        <v>78.34131766666667</v>
       </c>
       <c r="H9">
-        <v>2.915037</v>
+        <v>235.023953</v>
       </c>
       <c r="I9">
-        <v>0.01022059415658427</v>
+        <v>0.9340146796604594</v>
       </c>
       <c r="J9">
-        <v>0.01073863924961949</v>
+        <v>0.9378506425784978</v>
       </c>
       <c r="K9">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L9">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M9">
-        <v>0.4501370000000001</v>
+        <v>0.1217406666666667</v>
       </c>
       <c r="N9">
-        <v>1.350411</v>
+        <v>0.365222</v>
       </c>
       <c r="O9">
-        <v>0.612461985056394</v>
+        <v>0.1916244387242736</v>
       </c>
       <c r="P9">
-        <v>0.678378956759722</v>
+        <v>0.1969619425792371</v>
       </c>
       <c r="Q9">
-        <v>0.437388670023</v>
+        <v>9.537324240285111</v>
       </c>
       <c r="R9">
-        <v>3.936498030207001</v>
+        <v>85.835918162566</v>
       </c>
       <c r="S9">
-        <v>0.006259725385597386</v>
+        <v>0.1789800387501677</v>
       </c>
       <c r="T9">
-        <v>0.007284866891175877</v>
+        <v>0.1847208844114467</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1027,7 +1027,7 @@
         <v>26</v>
       </c>
       <c r="D10" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="E10">
         <v>3</v>
@@ -1036,51 +1036,51 @@
         <v>1</v>
       </c>
       <c r="G10">
-        <v>0.971679</v>
+        <v>2.332585666666667</v>
       </c>
       <c r="H10">
-        <v>2.915037</v>
+        <v>6.997757</v>
       </c>
       <c r="I10">
-        <v>0.01022059415658427</v>
+        <v>0.02780996438561621</v>
       </c>
       <c r="J10">
-        <v>0.01073863924961949</v>
+        <v>0.02792417885617889</v>
       </c>
       <c r="K10">
         <v>1</v>
       </c>
       <c r="L10">
-        <v>0.5</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M10">
-        <v>0.2142455</v>
+        <v>0.011782</v>
       </c>
       <c r="N10">
-        <v>0.428491</v>
+        <v>0.035346</v>
       </c>
       <c r="O10">
-        <v>0.291505084495164</v>
+        <v>0.0185453160301082</v>
       </c>
       <c r="P10">
-        <v>0.2152524509656171</v>
+        <v>0.0190618769471875</v>
       </c>
       <c r="Q10">
-        <v>0.2081778531945</v>
+        <v>0.02748252432466667</v>
       </c>
       <c r="R10">
-        <v>1.249067119167</v>
+        <v>0.247342718922</v>
       </c>
       <c r="S10">
-        <v>0.002979355163205879</v>
+        <v>0.0005157445783173064</v>
       </c>
       <c r="T10">
-        <v>0.002311518418516172</v>
+        <v>0.0005322872612077371</v>
       </c>
     </row>
     <row r="11" spans="1:20">
       <c r="A11" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B11" t="s">
         <v>25</v>
@@ -1089,122 +1089,122 @@
         <v>26</v>
       </c>
       <c r="D11" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E11">
+        <v>3</v>
+      </c>
+      <c r="F11">
+        <v>1</v>
+      </c>
+      <c r="G11">
+        <v>2.332585666666667</v>
+      </c>
+      <c r="H11">
+        <v>6.997757</v>
+      </c>
+      <c r="I11">
+        <v>0.02780996438561621</v>
+      </c>
+      <c r="J11">
+        <v>0.02792417885617889</v>
+      </c>
+      <c r="K11">
         <v>2</v>
       </c>
-      <c r="F11">
-        <v>1</v>
-      </c>
-      <c r="G11">
-        <v>13.75898</v>
-      </c>
-      <c r="H11">
-        <v>27.51796</v>
-      </c>
-      <c r="I11">
-        <v>0.1447236696363304</v>
-      </c>
-      <c r="J11">
-        <v>0.101372794007575</v>
-      </c>
-      <c r="K11">
-        <v>1</v>
-      </c>
       <c r="L11">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M11">
-        <v>0.07058066666666667</v>
+        <v>0.450137</v>
       </c>
       <c r="N11">
-        <v>0.211742</v>
+        <v>1.350411</v>
       </c>
       <c r="O11">
-        <v>0.09603293044844197</v>
+        <v>0.7085327552066554</v>
       </c>
       <c r="P11">
-        <v>0.1063685922746608</v>
+        <v>0.7282682145116399</v>
       </c>
       <c r="Q11">
-        <v>0.9711179810533334</v>
+        <v>1.049983114236333</v>
       </c>
       <c r="R11">
-        <v>5.826707886320001</v>
+        <v>9.449848028127001</v>
       </c>
       <c r="S11">
-        <v>0.01389823810042901</v>
+        <v>0.01970427068833961</v>
       </c>
       <c r="T11">
-        <v>0.01078288139353492</v>
+        <v>0.02033629187729309</v>
       </c>
     </row>
     <row r="12" spans="1:20">
       <c r="A12" t="s">
+        <v>22</v>
+      </c>
+      <c r="B12" t="s">
+        <v>25</v>
+      </c>
+      <c r="C12" t="s">
+        <v>26</v>
+      </c>
+      <c r="D12" t="s">
         <v>23</v>
       </c>
-      <c r="B12" t="s">
-        <v>25</v>
-      </c>
-      <c r="C12" t="s">
-        <v>26</v>
-      </c>
-      <c r="D12" t="s">
-        <v>21</v>
-      </c>
       <c r="E12">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F12">
         <v>1</v>
       </c>
       <c r="G12">
-        <v>13.75898</v>
+        <v>2.332585666666667</v>
       </c>
       <c r="H12">
-        <v>27.51796</v>
+        <v>6.997757</v>
       </c>
       <c r="I12">
-        <v>0.1447236696363304</v>
+        <v>0.02780996438561621</v>
       </c>
       <c r="J12">
-        <v>0.101372794007575</v>
+        <v>0.02792417885617889</v>
       </c>
       <c r="K12">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L12">
-        <v>0.6666666666666666</v>
+        <v>0.5</v>
       </c>
       <c r="M12">
-        <v>0.4501370000000001</v>
+        <v>0.051649</v>
       </c>
       <c r="N12">
-        <v>1.350411</v>
+        <v>0.103298</v>
       </c>
       <c r="O12">
-        <v>0.612461985056394</v>
+        <v>0.08129749003896268</v>
       </c>
       <c r="P12">
-        <v>0.678378956759722</v>
+        <v>0.05570796596193557</v>
       </c>
       <c r="Q12">
-        <v>6.193425980260002</v>
+        <v>0.1204757170976667</v>
       </c>
       <c r="R12">
-        <v>37.16055588156001</v>
+        <v>0.722854302586</v>
       </c>
       <c r="S12">
-        <v>0.08863774599011272</v>
+        <v>0.002260880302623541</v>
       </c>
       <c r="T12">
-        <v>0.0687691702426769</v>
+        <v>0.001555599205235014</v>
       </c>
     </row>
     <row r="13" spans="1:20">
       <c r="A13" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B13" t="s">
         <v>25</v>
@@ -1213,60 +1213,60 @@
         <v>26</v>
       </c>
       <c r="D13" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="E13">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F13">
         <v>1</v>
       </c>
       <c r="G13">
-        <v>13.75898</v>
+        <v>2.332585666666667</v>
       </c>
       <c r="H13">
-        <v>27.51796</v>
+        <v>6.997757</v>
       </c>
       <c r="I13">
-        <v>0.1447236696363304</v>
+        <v>0.02780996438561621</v>
       </c>
       <c r="J13">
-        <v>0.101372794007575</v>
+        <v>0.02792417885617889</v>
       </c>
       <c r="K13">
         <v>1</v>
       </c>
       <c r="L13">
-        <v>0.5</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M13">
-        <v>0.2142455</v>
+        <v>0.1217406666666667</v>
       </c>
       <c r="N13">
-        <v>0.428491</v>
+        <v>0.365222</v>
       </c>
       <c r="O13">
-        <v>0.291505084495164</v>
+        <v>0.1916244387242736</v>
       </c>
       <c r="P13">
-        <v>0.2152524509656171</v>
+        <v>0.1969619425792371</v>
       </c>
       <c r="Q13">
-        <v>2.94779954959</v>
+        <v>0.2839705341171111</v>
       </c>
       <c r="R13">
-        <v>11.79119819836</v>
+        <v>2.555734807054</v>
       </c>
       <c r="S13">
-        <v>0.04218768554578871</v>
+        <v>0.005329068816335745</v>
       </c>
       <c r="T13">
-        <v>0.02182074237136314</v>
+        <v>0.005500000512443052</v>
       </c>
     </row>
     <row r="14" spans="1:20">
       <c r="A14" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B14" t="s">
         <v>25</v>
@@ -1278,22 +1278,22 @@
         <v>20</v>
       </c>
       <c r="E14">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F14">
         <v>1</v>
       </c>
       <c r="G14">
-        <v>0.9124406666666666</v>
+        <v>1.0291985</v>
       </c>
       <c r="H14">
-        <v>2.737322</v>
+        <v>2.058397</v>
       </c>
       <c r="I14">
-        <v>0.009597496442717393</v>
+        <v>0.01227049194365979</v>
       </c>
       <c r="J14">
-        <v>0.0100839589576554</v>
+        <v>0.008213924259590904</v>
       </c>
       <c r="K14">
         <v>1</v>
@@ -1302,33 +1302,33 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="M14">
-        <v>0.07058066666666667</v>
+        <v>0.011782</v>
       </c>
       <c r="N14">
-        <v>0.211742</v>
+        <v>0.035346</v>
       </c>
       <c r="O14">
-        <v>0.09603293044844197</v>
+        <v>0.0185453160301082</v>
       </c>
       <c r="P14">
-        <v>0.1063685922746608</v>
+        <v>0.0190618769471875</v>
       </c>
       <c r="Q14">
-        <v>0.0644006705471111</v>
+        <v>0.012126016727</v>
       </c>
       <c r="R14">
-        <v>0.579606034924</v>
+        <v>0.07275610036200002</v>
       </c>
       <c r="S14">
-        <v>0.0009216757083626485</v>
+        <v>0.0002275601509400674</v>
       </c>
       <c r="T14">
-        <v>0.001072616518881262</v>
+        <v>0.00015657281348984</v>
       </c>
     </row>
     <row r="15" spans="1:20">
       <c r="A15" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B15" t="s">
         <v>25</v>
@@ -1340,22 +1340,22 @@
         <v>21</v>
       </c>
       <c r="E15">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F15">
         <v>1</v>
       </c>
       <c r="G15">
-        <v>0.9124406666666666</v>
+        <v>1.0291985</v>
       </c>
       <c r="H15">
-        <v>2.737322</v>
+        <v>2.058397</v>
       </c>
       <c r="I15">
-        <v>0.009597496442717393</v>
+        <v>0.01227049194365979</v>
       </c>
       <c r="J15">
-        <v>0.0100839589576554</v>
+        <v>0.008213924259590904</v>
       </c>
       <c r="K15">
         <v>2</v>
@@ -1364,33 +1364,33 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="M15">
-        <v>0.4501370000000001</v>
+        <v>0.450137</v>
       </c>
       <c r="N15">
         <v>1.350411</v>
       </c>
       <c r="O15">
-        <v>0.612461985056394</v>
+        <v>0.7085327552066554</v>
       </c>
       <c r="P15">
-        <v>0.678378956759722</v>
+        <v>0.7282682145116399</v>
       </c>
       <c r="Q15">
-        <v>0.4107233043713334</v>
+        <v>0.4632803251945001</v>
       </c>
       <c r="R15">
-        <v>3.696509739342</v>
+        <v>2.779681951167</v>
       </c>
       <c r="S15">
-        <v>0.005878101722878375</v>
+        <v>0.008694045464582337</v>
       </c>
       <c r="T15">
-        <v>0.006840745557702125</v>
+        <v>0.005981939954666111</v>
       </c>
     </row>
     <row r="16" spans="1:20">
       <c r="A16" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B16" t="s">
         <v>25</v>
@@ -1402,22 +1402,22 @@
         <v>23</v>
       </c>
       <c r="E16">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F16">
         <v>1</v>
       </c>
       <c r="G16">
-        <v>0.9124406666666666</v>
+        <v>1.0291985</v>
       </c>
       <c r="H16">
-        <v>2.737322</v>
+        <v>2.058397</v>
       </c>
       <c r="I16">
-        <v>0.009597496442717393</v>
+        <v>0.01227049194365979</v>
       </c>
       <c r="J16">
-        <v>0.0100839589576554</v>
+        <v>0.008213924259590904</v>
       </c>
       <c r="K16">
         <v>1</v>
@@ -1426,28 +1426,338 @@
         <v>0.5</v>
       </c>
       <c r="M16">
-        <v>0.2142455</v>
+        <v>0.051649</v>
       </c>
       <c r="N16">
-        <v>0.428491</v>
+        <v>0.103298</v>
       </c>
       <c r="O16">
-        <v>0.291505084495164</v>
+        <v>0.08129749003896268</v>
       </c>
       <c r="P16">
-        <v>0.2152524509656171</v>
+        <v>0.05570796596193557</v>
       </c>
       <c r="Q16">
-        <v>0.1954863068503333</v>
+        <v>0.05315707332650001</v>
       </c>
       <c r="R16">
-        <v>1.172917841102</v>
+        <v>0.212628293306</v>
       </c>
       <c r="S16">
-        <v>0.00279771901147637</v>
+        <v>0.0009975601965628534</v>
       </c>
       <c r="T16">
-        <v>0.002170596881072015</v>
+        <v>0.0004575810130672069</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20">
+      <c r="A17" t="s">
+        <v>23</v>
+      </c>
+      <c r="B17" t="s">
+        <v>25</v>
+      </c>
+      <c r="C17" t="s">
+        <v>26</v>
+      </c>
+      <c r="D17" t="s">
+        <v>24</v>
+      </c>
+      <c r="E17">
+        <v>2</v>
+      </c>
+      <c r="F17">
+        <v>1</v>
+      </c>
+      <c r="G17">
+        <v>1.0291985</v>
+      </c>
+      <c r="H17">
+        <v>2.058397</v>
+      </c>
+      <c r="I17">
+        <v>0.01227049194365979</v>
+      </c>
+      <c r="J17">
+        <v>0.008213924259590904</v>
+      </c>
+      <c r="K17">
+        <v>1</v>
+      </c>
+      <c r="L17">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M17">
+        <v>0.1217406666666667</v>
+      </c>
+      <c r="N17">
+        <v>0.365222</v>
+      </c>
+      <c r="O17">
+        <v>0.1916244387242736</v>
+      </c>
+      <c r="P17">
+        <v>0.1969619425792371</v>
+      </c>
+      <c r="Q17">
+        <v>0.1252953115223333</v>
+      </c>
+      <c r="R17">
+        <v>0.7517718691340001</v>
+      </c>
+      <c r="S17">
+        <v>0.002351326131574528</v>
+      </c>
+      <c r="T17">
+        <v>0.001617830478367746</v>
+      </c>
+    </row>
+    <row r="18" spans="1:20">
+      <c r="A18" t="s">
+        <v>24</v>
+      </c>
+      <c r="B18" t="s">
+        <v>25</v>
+      </c>
+      <c r="C18" t="s">
+        <v>26</v>
+      </c>
+      <c r="D18" t="s">
+        <v>20</v>
+      </c>
+      <c r="E18">
+        <v>3</v>
+      </c>
+      <c r="F18">
+        <v>1</v>
+      </c>
+      <c r="G18">
+        <v>1.355979666666667</v>
+      </c>
+      <c r="H18">
+        <v>4.067939</v>
+      </c>
+      <c r="I18">
+        <v>0.01616650002463063</v>
+      </c>
+      <c r="J18">
+        <v>0.01623289522800313</v>
+      </c>
+      <c r="K18">
+        <v>1</v>
+      </c>
+      <c r="L18">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M18">
+        <v>0.011782</v>
+      </c>
+      <c r="N18">
+        <v>0.035346</v>
+      </c>
+      <c r="O18">
+        <v>0.0185453160301082</v>
+      </c>
+      <c r="P18">
+        <v>0.0190618769471875</v>
+      </c>
+      <c r="Q18">
+        <v>0.01597615243266667</v>
+      </c>
+      <c r="R18">
+        <v>0.143785371894</v>
+      </c>
+      <c r="S18">
+        <v>0.0002998128520575271</v>
+      </c>
+      <c r="T18">
+        <v>0.0003094294513327829</v>
+      </c>
+    </row>
+    <row r="19" spans="1:20">
+      <c r="A19" t="s">
+        <v>24</v>
+      </c>
+      <c r="B19" t="s">
+        <v>25</v>
+      </c>
+      <c r="C19" t="s">
+        <v>26</v>
+      </c>
+      <c r="D19" t="s">
+        <v>21</v>
+      </c>
+      <c r="E19">
+        <v>3</v>
+      </c>
+      <c r="F19">
+        <v>1</v>
+      </c>
+      <c r="G19">
+        <v>1.355979666666667</v>
+      </c>
+      <c r="H19">
+        <v>4.067939</v>
+      </c>
+      <c r="I19">
+        <v>0.01616650002463063</v>
+      </c>
+      <c r="J19">
+        <v>0.01623289522800313</v>
+      </c>
+      <c r="K19">
+        <v>2</v>
+      </c>
+      <c r="L19">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M19">
+        <v>0.450137</v>
+      </c>
+      <c r="N19">
+        <v>1.350411</v>
+      </c>
+      <c r="O19">
+        <v>0.7085327552066554</v>
+      </c>
+      <c r="P19">
+        <v>0.7282682145116399</v>
+      </c>
+      <c r="Q19">
+        <v>0.6103766192143333</v>
+      </c>
+      <c r="R19">
+        <v>5.493389572929</v>
+      </c>
+      <c r="S19">
+        <v>0.01145449480450001</v>
+      </c>
+      <c r="T19">
+        <v>0.01182190162405236</v>
+      </c>
+    </row>
+    <row r="20" spans="1:20">
+      <c r="A20" t="s">
+        <v>24</v>
+      </c>
+      <c r="B20" t="s">
+        <v>25</v>
+      </c>
+      <c r="C20" t="s">
+        <v>26</v>
+      </c>
+      <c r="D20" t="s">
+        <v>23</v>
+      </c>
+      <c r="E20">
+        <v>3</v>
+      </c>
+      <c r="F20">
+        <v>1</v>
+      </c>
+      <c r="G20">
+        <v>1.355979666666667</v>
+      </c>
+      <c r="H20">
+        <v>4.067939</v>
+      </c>
+      <c r="I20">
+        <v>0.01616650002463063</v>
+      </c>
+      <c r="J20">
+        <v>0.01623289522800313</v>
+      </c>
+      <c r="K20">
+        <v>1</v>
+      </c>
+      <c r="L20">
+        <v>0.5</v>
+      </c>
+      <c r="M20">
+        <v>0.051649</v>
+      </c>
+      <c r="N20">
+        <v>0.103298</v>
+      </c>
+      <c r="O20">
+        <v>0.08129749003896268</v>
+      </c>
+      <c r="P20">
+        <v>0.05570796596193557</v>
+      </c>
+      <c r="Q20">
+        <v>0.07003499380366666</v>
+      </c>
+      <c r="R20">
+        <v>0.420209962822</v>
+      </c>
+      <c r="S20">
+        <v>0.001314295874717299</v>
+      </c>
+      <c r="T20">
+        <v>0.0009043015748252648</v>
+      </c>
+    </row>
+    <row r="21" spans="1:20">
+      <c r="A21" t="s">
+        <v>24</v>
+      </c>
+      <c r="B21" t="s">
+        <v>25</v>
+      </c>
+      <c r="C21" t="s">
+        <v>26</v>
+      </c>
+      <c r="D21" t="s">
+        <v>24</v>
+      </c>
+      <c r="E21">
+        <v>3</v>
+      </c>
+      <c r="F21">
+        <v>1</v>
+      </c>
+      <c r="G21">
+        <v>1.355979666666667</v>
+      </c>
+      <c r="H21">
+        <v>4.067939</v>
+      </c>
+      <c r="I21">
+        <v>0.01616650002463063</v>
+      </c>
+      <c r="J21">
+        <v>0.01623289522800313</v>
+      </c>
+      <c r="K21">
+        <v>1</v>
+      </c>
+      <c r="L21">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M21">
+        <v>0.1217406666666667</v>
+      </c>
+      <c r="N21">
+        <v>0.365222</v>
+      </c>
+      <c r="O21">
+        <v>0.1916244387242736</v>
+      </c>
+      <c r="P21">
+        <v>0.1969619425792371</v>
+      </c>
+      <c r="Q21">
+        <v>0.1650778686064444</v>
+      </c>
+      <c r="R21">
+        <v>1.485700817458</v>
+      </c>
+      <c r="S21">
+        <v>0.003097896493355801</v>
+      </c>
+      <c r="T21">
+        <v>0.003197262577792724</v>
       </c>
     </row>
   </sheetData>
